--- a/2 сем/2.3.1/231.xlsx
+++ b/2 сем/2.3.1/231.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учёба\Phish\Лабы\2 сем\2.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB635EB-EE26-4771-86A5-E2CA40A1B01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA0EFF-CD9B-4A7D-A83D-30E7605D9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t>Скорость откачки по ухудшению и улучшению вакуума</t>
   </si>
@@ -56,6 +61,30 @@
   </si>
   <si>
     <t>Ухудшение 2</t>
+  </si>
+  <si>
+    <t>Улучшение 2</t>
+  </si>
+  <si>
+    <t>t_vid, c</t>
+  </si>
+  <si>
+    <t>t_ist, c</t>
+  </si>
+  <si>
+    <t>P*10-5, Па</t>
+  </si>
+  <si>
+    <t>p*10-5, Па</t>
+  </si>
+  <si>
+    <t>ln(P)</t>
+  </si>
+  <si>
+    <t>P*t</t>
+  </si>
+  <si>
+    <t>t*ln(P)</t>
   </si>
 </sst>
 </file>
@@ -376,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB65"/>
+  <dimension ref="A1:CM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +426,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -419,7 +448,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -438,6 +467,15 @@
       <c r="L4" t="s">
         <v>6</v>
       </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
       <c r="R4" t="s">
         <v>1</v>
       </c>
@@ -456,8 +494,26 @@
       <c r="AB4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -478,6 +534,17 @@
       <c r="L5">
         <v>80</v>
       </c>
+      <c r="O5">
+        <f>B5-7</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <f>LN(P5)</f>
+        <v>2.1972245773362196</v>
+      </c>
       <c r="R5">
         <v>136</v>
       </c>
@@ -498,13 +565,36 @@
       <c r="AB5">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE5">
+        <f>J5-70</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f ca="1">AE5*AG5</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f ca="1">LN(AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>Z5-190</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>79</v>
+      </c>
+      <c r="AJ5">
+        <f>LN(AI5)</f>
+        <v>4.3694478524670215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>11</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C69" si="0">B6-7</f>
+        <f t="shared" ref="C6:C63" si="0">B6-7</f>
         <v>4</v>
       </c>
       <c r="D6">
@@ -520,11 +610,22 @@
       <c r="L6">
         <v>76</v>
       </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O64" si="2">B6-7</f>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>9.1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q63" si="3">LN(P6)</f>
+        <v>2.2082744135228043</v>
+      </c>
       <c r="R6">
         <v>137</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S65" si="2">R6-136</f>
+        <f t="shared" ref="S6:S56" si="4">R6-136</f>
         <v>1</v>
       </c>
       <c r="T6">
@@ -534,14 +635,36 @@
         <v>191</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA6:AA69" si="3">Z6-190</f>
+        <f t="shared" ref="AA6:AA52" si="5">Z6-190</f>
         <v>1</v>
       </c>
       <c r="AB6">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE63" si="6">J6-70</f>
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>76</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG63" si="7">LN(AF6)</f>
+        <v>4.3307333402863311</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH52" si="8">Z6-190</f>
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>76</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ52" si="9">LN(AI6)</f>
+        <v>4.3307333402863311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>12</v>
       </c>
@@ -562,11 +685,22 @@
       <c r="L7">
         <v>74</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>2.2192034840549946</v>
+      </c>
       <c r="R7">
         <v>138</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T7">
@@ -576,14 +710,36 @@
         <v>192</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB7">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>74</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="7"/>
+        <v>4.3040650932041702</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>70</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="9"/>
+        <v>4.2484952420493594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>13</v>
       </c>
@@ -604,11 +760,22 @@
       <c r="L8">
         <v>70</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>9.4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>2.2407096892759584</v>
+      </c>
       <c r="R8">
         <v>139</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="T8">
@@ -618,14 +785,36 @@
         <v>193</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB8">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE8">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>70</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="7"/>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>61</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="9"/>
+        <v>4.1108738641733114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>14</v>
       </c>
@@ -646,11 +835,22 @@
       <c r="L9">
         <v>61</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>9.6</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>2.2617630984737906</v>
+      </c>
       <c r="R9">
         <v>140</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="T9">
@@ -660,14 +860,36 @@
         <v>194</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AB9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>61</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="7"/>
+        <v>4.1108738641733114</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>48</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="9"/>
+        <v>3.8712010109078911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>15</v>
       </c>
@@ -688,11 +910,22 @@
       <c r="L10">
         <v>43</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>9.6</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>2.2617630984737906</v>
+      </c>
       <c r="R10">
         <v>141</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="T10">
@@ -702,14 +935,36 @@
         <v>195</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AB10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AF10">
+        <v>43</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="7"/>
+        <v>3.7612001156935624</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AI10">
+        <v>46</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="9"/>
+        <v>3.8286413964890951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>16</v>
       </c>
@@ -730,11 +985,22 @@
       <c r="L11">
         <v>40</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>2.2721258855093369</v>
+      </c>
       <c r="R11">
         <v>142</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="T11">
@@ -744,14 +1010,36 @@
         <v>196</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AB11">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <v>40</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="7"/>
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AI11">
+        <v>37</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="9"/>
+        <v>3.6109179126442243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>17</v>
       </c>
@@ -772,11 +1060,22 @@
       <c r="L12">
         <v>31</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>2.2721258855093369</v>
+      </c>
       <c r="R12">
         <v>143</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="T12">
@@ -786,14 +1085,36 @@
         <v>197</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AB12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE12">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AF12">
+        <v>31</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="7"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>31</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="9"/>
+        <v>3.4339872044851463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>18</v>
       </c>
@@ -814,11 +1135,22 @@
       <c r="L13">
         <v>29</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>2.2823823856765264</v>
+      </c>
       <c r="R13">
         <v>144</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="T13">
@@ -828,14 +1160,36 @@
         <v>198</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB13">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE13">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AF13">
+        <v>29</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="7"/>
+        <v>3.3672958299864741</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AI13">
+        <v>24</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="9"/>
+        <v>3.1780538303479458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>19</v>
       </c>
@@ -856,11 +1210,22 @@
       <c r="L14">
         <v>26</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>2.2823823856765264</v>
+      </c>
       <c r="R14">
         <v>145</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="T14">
@@ -870,14 +1235,36 @@
         <v>199</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AB14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AF14">
+        <v>26</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="7"/>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AI14">
+        <v>23</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="9"/>
+        <v>3.1354942159291497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>20</v>
       </c>
@@ -898,11 +1285,22 @@
       <c r="L15">
         <v>23</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>2.2823823856765264</v>
+      </c>
       <c r="R15">
         <v>146</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="T15">
@@ -912,14 +1310,36 @@
         <v>200</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>23</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="7"/>
+        <v>3.1354942159291497</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AI15">
+        <v>20</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="9"/>
+        <v>2.9957322735539909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>21</v>
       </c>
@@ -940,11 +1360,22 @@
       <c r="L16">
         <v>20</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>2.2823823856765264</v>
+      </c>
       <c r="R16">
         <v>147</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="T16">
@@ -954,14 +1385,36 @@
         <v>201</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AB16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AF16">
+        <v>20</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="7"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AI16">
+        <v>18</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="9"/>
+        <v>2.8903717578961645</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>22</v>
       </c>
@@ -982,11 +1435,22 @@
       <c r="L17">
         <v>19</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>9.9</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>2.2925347571405443</v>
+      </c>
       <c r="R17">
         <v>148</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="T17">
@@ -996,14 +1460,36 @@
         <v>202</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AB17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AF17">
+        <v>19</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="7"/>
+        <v>2.9444389791664403</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AI17">
+        <v>17</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="9"/>
+        <v>2.8332133440562162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>23</v>
       </c>
@@ -1024,11 +1510,22 @@
       <c r="L18">
         <v>18</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>2.3025850929940459</v>
+      </c>
       <c r="R18">
         <v>149</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="T18">
@@ -1038,14 +1535,36 @@
         <v>203</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AB18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE18">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AF18">
+        <v>18</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="7"/>
+        <v>2.8903717578961645</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AI18">
+        <v>16</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="9"/>
+        <v>2.7725887222397811</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>24</v>
       </c>
@@ -1066,11 +1585,22 @@
       <c r="L19">
         <v>16</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>2.3978952727983707</v>
+      </c>
       <c r="R19">
         <v>150</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="T19">
@@ -1080,14 +1610,36 @@
         <v>204</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AB19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AF19">
+        <v>16</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="7"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AI19">
+        <v>15</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="9"/>
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>25</v>
       </c>
@@ -1108,11 +1660,22 @@
       <c r="L20">
         <v>15</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>2.5649493574615367</v>
+      </c>
       <c r="R20">
         <v>151</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="T20">
@@ -1122,14 +1685,36 @@
         <v>205</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AB20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE20">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AF20">
+        <v>15</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="7"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AI20">
+        <v>14</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="9"/>
+        <v>2.6390573296152584</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>26</v>
       </c>
@@ -1150,11 +1735,22 @@
       <c r="L21">
         <v>14</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>2.6390573296152584</v>
+      </c>
       <c r="R21">
         <v>152</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="T21">
@@ -1164,14 +1760,36 @@
         <v>206</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AB21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE21">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AF21">
+        <v>14</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="7"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AI21">
+        <v>13</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="9"/>
+        <v>2.5649493574615367</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>27</v>
       </c>
@@ -1192,11 +1810,22 @@
       <c r="L22">
         <v>13</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>2.7080502011022101</v>
+      </c>
       <c r="R22">
         <v>153</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="T22">
@@ -1206,14 +1835,36 @@
         <v>207</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AB22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE22">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AF22">
+        <v>13</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="7"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AI22">
+        <v>13</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="9"/>
+        <v>2.5649493574615367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>28</v>
       </c>
@@ -1234,11 +1885,22 @@
       <c r="L23">
         <v>13</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>16</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>2.7725887222397811</v>
+      </c>
       <c r="R23">
         <v>154</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="T23">
@@ -1248,14 +1910,39 @@
         <v>208</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="AB23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD23">
+        <v>444</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AF23">
+        <v>13</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="7"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="AI23">
+        <v>12</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="9"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>29</v>
       </c>
@@ -1276,11 +1963,22 @@
       <c r="L24">
         <v>12</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>19</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>2.9444389791664403</v>
+      </c>
       <c r="R24">
         <v>155</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="T24">
@@ -1290,14 +1988,36 @@
         <v>209</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="AB24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE24">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AF24">
+        <v>12</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="7"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AI24">
+        <v>12</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="9"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>30</v>
       </c>
@@ -1318,11 +2038,22 @@
       <c r="L25">
         <v>12</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>2.9957322735539909</v>
+      </c>
       <c r="R25">
         <v>156</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T25">
@@ -1332,14 +2063,36 @@
         <v>210</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AB25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE25">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AF25">
+        <v>12</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="7"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AI25">
+        <v>12</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="9"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>31</v>
       </c>
@@ -1360,11 +2113,22 @@
       <c r="L26">
         <v>12</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>21</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>3.044522437723423</v>
+      </c>
       <c r="R26">
         <v>157</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="T26">
@@ -1374,14 +2138,36 @@
         <v>211</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="AB26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE26">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="AF26">
+        <v>12</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="7"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AI26">
+        <v>12</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="9"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>32</v>
       </c>
@@ -1402,11 +2188,22 @@
       <c r="L27">
         <v>12</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>22</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>3.0910424533583161</v>
+      </c>
       <c r="R27">
         <v>158</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="T27">
@@ -1416,14 +2213,36 @@
         <v>212</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AB27">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE27">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AF27">
+        <v>12</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="7"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AI27">
+        <v>11</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>33</v>
       </c>
@@ -1444,11 +2263,22 @@
       <c r="L28">
         <v>11</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>24</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>3.1780538303479458</v>
+      </c>
       <c r="R28">
         <v>159</v>
       </c>
       <c r="S28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="T28">
@@ -1458,14 +2288,36 @@
         <v>213</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="AB28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE28">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="AF28">
+        <v>11</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="AI28">
+        <v>11</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>34</v>
       </c>
@@ -1486,11 +2338,22 @@
       <c r="L29">
         <v>11</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>3.1780538303479458</v>
+      </c>
       <c r="R29">
         <v>160</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="T29">
@@ -1500,14 +2363,36 @@
         <v>214</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AB29">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE29">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AF29">
+        <v>11</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="AI29">
+        <v>11</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>35</v>
       </c>
@@ -1528,11 +2413,22 @@
       <c r="L30">
         <v>11</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>3.2958368660043291</v>
+      </c>
       <c r="R30">
         <v>161</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="T30">
@@ -1542,14 +2438,36 @@
         <v>215</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AB30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE30">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AF30">
+        <v>11</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AI30">
+        <v>11</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>36</v>
       </c>
@@ -1570,11 +2488,22 @@
       <c r="L31">
         <v>11</v>
       </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>3.3672958299864741</v>
+      </c>
       <c r="R31">
         <v>162</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="T31">
@@ -1584,14 +2513,36 @@
         <v>216</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AB31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AF31">
+        <v>11</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="AI31">
+        <v>11</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>37</v>
       </c>
@@ -1612,11 +2563,22 @@
       <c r="L32">
         <v>11</v>
       </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>3.4011973816621555</v>
+      </c>
       <c r="R32">
         <v>163</v>
       </c>
       <c r="S32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="T32">
@@ -1626,14 +2588,36 @@
         <v>217</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AB32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AF32">
+        <v>11</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AI32">
+        <v>11</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>38</v>
       </c>
@@ -1654,11 +2638,22 @@
       <c r="L33">
         <v>11</v>
       </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>3.4339872044851463</v>
+      </c>
       <c r="R33">
         <v>164</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="T33">
@@ -1668,14 +2663,36 @@
         <v>218</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="AB33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE33">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AF33">
+        <v>11</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AI33">
+        <v>11</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>39</v>
       </c>
@@ -1696,11 +2713,22 @@
       <c r="L34">
         <v>11</v>
       </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>3.4657359027997265</v>
+      </c>
       <c r="R34">
         <v>165</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="T34">
@@ -1710,14 +2738,36 @@
         <v>219</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="AB34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE34">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="AF34">
+        <v>11</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="AI34">
+        <v>11</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>40</v>
       </c>
@@ -1738,11 +2788,22 @@
       <c r="L35">
         <v>11</v>
       </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>3.5263605246161616</v>
+      </c>
       <c r="R35">
         <v>166</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="T35">
@@ -1752,14 +2813,36 @@
         <v>220</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AB35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE35">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AF35">
+        <v>11</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="AI35">
+        <v>11</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>41</v>
       </c>
@@ -1780,11 +2863,22 @@
       <c r="L36">
         <v>11</v>
       </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>3.5835189384561099</v>
+      </c>
       <c r="R36">
         <v>167</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="T36">
@@ -1794,14 +2888,36 @@
         <v>221</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="AB36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE36">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AF36">
+        <v>11</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AI36">
+        <v>11</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>42</v>
       </c>
@@ -1822,11 +2938,22 @@
       <c r="L37">
         <v>11</v>
       </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>38</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>3.6375861597263857</v>
+      </c>
       <c r="R37">
         <v>168</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="T37">
@@ -1836,14 +2963,36 @@
         <v>222</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="AB37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE37">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="AF37">
+        <v>11</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="AI37">
+        <v>11</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>43</v>
       </c>
@@ -1864,11 +3013,22 @@
       <c r="L38">
         <v>11</v>
       </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>39</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>3.6635616461296463</v>
+      </c>
       <c r="R38">
         <v>169</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="T38">
@@ -1878,14 +3038,36 @@
         <v>223</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="AB38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE38">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AF38">
+        <v>11</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AI38">
+        <v>11</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>44</v>
       </c>
@@ -1906,11 +3088,22 @@
       <c r="L39">
         <v>11</v>
       </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>3.6888794541139363</v>
+      </c>
       <c r="R39">
         <v>170</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="T39">
@@ -1920,14 +3113,36 @@
         <v>224</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="AB39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE39">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AF39">
+        <v>11</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="AI39">
+        <v>11</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>45</v>
       </c>
@@ -1948,11 +3163,22 @@
       <c r="L40">
         <v>11</v>
       </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>41</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>3.713572066704308</v>
+      </c>
       <c r="R40">
         <v>171</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="T40">
@@ -1962,14 +3188,36 @@
         <v>225</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="AB40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE40">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AF40">
+        <v>11</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="AI40">
+        <v>11</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>46</v>
       </c>
@@ -1990,11 +3238,22 @@
       <c r="L41">
         <v>11</v>
       </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>42</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>3.7376696182833684</v>
+      </c>
       <c r="R41">
         <v>172</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="T41">
@@ -2004,14 +3263,36 @@
         <v>226</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="AB41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE41">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="AF41">
+        <v>11</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AI41">
+        <v>11</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>47</v>
       </c>
@@ -2032,11 +3313,22 @@
       <c r="L42">
         <v>11</v>
       </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>45</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>3.8066624897703196</v>
+      </c>
       <c r="R42">
         <v>173</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="T42">
@@ -2046,14 +3338,36 @@
         <v>227</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="AB42">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE42">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AF42">
+        <v>11</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AI42">
+        <v>11</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>48</v>
       </c>
@@ -2074,11 +3388,22 @@
       <c r="L43">
         <v>11</v>
       </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>46</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>3.8286413964890951</v>
+      </c>
       <c r="R43">
         <v>174</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="T43">
@@ -2088,14 +3413,36 @@
         <v>228</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="AB43">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE43">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="AF43">
+        <v>11</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="AI43">
+        <v>11</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>49</v>
       </c>
@@ -2116,11 +3463,22 @@
       <c r="L44">
         <v>10</v>
       </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>48</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>3.8712010109078911</v>
+      </c>
       <c r="R44">
         <v>175</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="T44">
@@ -2130,14 +3488,36 @@
         <v>229</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="AB44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE44">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AF44">
+        <v>10</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AI44">
+        <v>11</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="9"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>50</v>
       </c>
@@ -2158,11 +3538,22 @@
       <c r="L45">
         <v>10</v>
       </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>49</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>3.8918202981106265</v>
+      </c>
       <c r="R45">
         <v>176</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="T45">
@@ -2172,14 +3563,36 @@
         <v>230</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="AB45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE45">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AF45">
+        <v>10</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="AI45">
+        <v>10</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>51</v>
       </c>
@@ -2200,11 +3613,22 @@
       <c r="L46">
         <v>10</v>
       </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>50</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="3"/>
+        <v>3.912023005428146</v>
+      </c>
       <c r="R46">
         <v>177</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="T46">
@@ -2214,14 +3638,36 @@
         <v>231</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="AB46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE46">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="AF46">
+        <v>10</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="AI46">
+        <v>10</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>52</v>
       </c>
@@ -2242,11 +3688,22 @@
       <c r="L47">
         <v>10</v>
       </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>53</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="3"/>
+        <v>3.970291913552122</v>
+      </c>
       <c r="R47">
         <v>178</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="T47">
@@ -2256,14 +3713,36 @@
         <v>232</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="AB47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE47">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="AF47">
+        <v>10</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="AI47">
+        <v>10</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>53</v>
       </c>
@@ -2284,11 +3763,22 @@
       <c r="L48">
         <v>10</v>
       </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>54</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="3"/>
+        <v>3.9889840465642745</v>
+      </c>
       <c r="R48">
         <v>179</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="T48">
@@ -2298,14 +3788,36 @@
         <v>233</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="AB48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE48">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="AF48">
+        <v>10</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="AI48">
+        <v>10</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>54</v>
       </c>
@@ -2326,11 +3838,22 @@
       <c r="L49">
         <v>10</v>
       </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>55</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="3"/>
+        <v>4.0073331852324712</v>
+      </c>
       <c r="R49">
         <v>180</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="T49">
@@ -2340,14 +3863,36 @@
         <v>234</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="AB49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE49">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="AF49">
+        <v>10</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="AI49">
+        <v>10</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>55</v>
       </c>
@@ -2368,11 +3913,22 @@
       <c r="L50">
         <v>10</v>
       </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>57</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="3"/>
+        <v>4.0430512678345503</v>
+      </c>
       <c r="R50">
         <v>181</v>
       </c>
       <c r="S50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="T50">
@@ -2382,14 +3938,36 @@
         <v>235</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="AB50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE50">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="AF50">
+        <v>10</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="AI50">
+        <v>10</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="51" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>56</v>
       </c>
@@ -2410,11 +3988,22 @@
       <c r="L51">
         <v>10</v>
       </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>58</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="3"/>
+        <v>4.0604430105464191</v>
+      </c>
       <c r="R51">
         <v>182</v>
       </c>
       <c r="S51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="T51">
@@ -2424,14 +4013,36 @@
         <v>236</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="AB51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE51">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="AF51">
+        <v>10</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="AI51">
+        <v>10</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>57</v>
       </c>
@@ -2452,11 +4063,22 @@
       <c r="L52">
         <v>10</v>
       </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>60</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="3"/>
+        <v>4.0943445622221004</v>
+      </c>
       <c r="R52">
         <v>183</v>
       </c>
       <c r="S52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="T52">
@@ -2466,14 +4088,36 @@
         <v>237</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="AB52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE52">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="AF52">
+        <v>10</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AI52">
+        <v>10</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>58</v>
       </c>
@@ -2494,18 +4138,40 @@
       <c r="L53">
         <v>10</v>
       </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>61</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="3"/>
+        <v>4.1108738641733114</v>
+      </c>
       <c r="R53">
         <v>184</v>
       </c>
       <c r="S53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="T53">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE53">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="AF53">
+        <v>10</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>59</v>
       </c>
@@ -2526,18 +4192,40 @@
       <c r="L54">
         <v>10</v>
       </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>64</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="3"/>
+        <v>4.1588830833596715</v>
+      </c>
       <c r="R54">
         <v>185</v>
       </c>
       <c r="S54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="T54">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE54">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="AF54">
+        <v>10</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="55" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>60</v>
       </c>
@@ -2558,18 +4246,40 @@
       <c r="L55">
         <v>10</v>
       </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>64</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="3"/>
+        <v>4.1588830833596715</v>
+      </c>
       <c r="R55">
         <v>186</v>
       </c>
       <c r="S55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="T55">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE55">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AF55">
+        <v>10</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>61</v>
       </c>
@@ -2590,18 +4300,40 @@
       <c r="L56">
         <v>10</v>
       </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>66</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="3"/>
+        <v>4.1896547420264252</v>
+      </c>
       <c r="R56">
         <v>187</v>
       </c>
       <c r="S56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="T56">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AE56">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="AF56">
+        <v>10</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>62</v>
       </c>
@@ -2622,8 +4354,30 @@
       <c r="L57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>67</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="3"/>
+        <v>4.2046926193909657</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="AF57">
+        <v>10</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>63</v>
       </c>
@@ -2644,8 +4398,30 @@
       <c r="L58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>70</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="3"/>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="AF58">
+        <v>10</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>64</v>
       </c>
@@ -2666,8 +4442,30 @@
       <c r="L59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>71</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="3"/>
+        <v>4.2626798770413155</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="AF59">
+        <v>10</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="60" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>65</v>
       </c>
@@ -2688,8 +4486,30 @@
       <c r="L60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>73</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="3"/>
+        <v>4.290459441148391</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="AF60">
+        <v>10</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="61" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>66</v>
       </c>
@@ -2710,8 +4530,30 @@
       <c r="L61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>74</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="3"/>
+        <v>4.3040650932041702</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="AF61">
+        <v>10</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="62" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>67</v>
       </c>
@@ -2732,8 +4574,30 @@
       <c r="L62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>76</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="3"/>
+        <v>4.3307333402863311</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="AF62">
+        <v>10</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>68</v>
       </c>
@@ -2754,33 +4618,4758 @@
       <c r="L63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="J64">
-        <v>129</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>77</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="3"/>
+        <v>4.3438054218536841</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="AF63">
+        <v>10</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="65" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="AE65">
+        <f>AVERAGE(AE6:AE64)</f>
+        <v>29.5</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" ref="AF65" si="10">AVERAGE(AF6:AF64)</f>
+        <v>17.672413793103448</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" ref="AG65" si="11">AVERAGE(AG6:AG64)</f>
+        <v>2.6564984775904574</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" ref="AH65" si="12">AVERAGE(AH6:AH64)</f>
+        <v>24</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" ref="AI65" si="13">AVERAGE(AI6:AI64)</f>
+        <v>18.468085106382979</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" ref="AJ65" si="14">AVERAGE(AJ6:AJ64)</f>
+        <v>2.7072283534930666</v>
+      </c>
+    </row>
+    <row r="67" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+    </row>
+    <row r="68" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>10</v>
+      </c>
+      <c r="R68" t="s">
+        <v>12</v>
+      </c>
+      <c r="W68" t="s">
+        <v>9</v>
+      </c>
+      <c r="X68" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <f>G69-7</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>9</v>
+      </c>
+      <c r="J69">
+        <v>70</v>
+      </c>
+      <c r="K69">
+        <f>J69-70</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>80</v>
+      </c>
+      <c r="M69">
+        <v>136</v>
+      </c>
+      <c r="N69">
+        <f>M69-136</f>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>10</v>
+      </c>
+      <c r="P69">
+        <v>190</v>
+      </c>
+      <c r="Q69">
+        <f>P69-190</f>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>79</v>
+      </c>
+      <c r="W69">
+        <v>7</v>
+      </c>
+      <c r="X69">
+        <f>W69-7</f>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>9</v>
+      </c>
+      <c r="Z69">
+        <v>70</v>
+      </c>
+      <c r="AA69">
+        <f>Z69-70</f>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>80</v>
+      </c>
+      <c r="AC69">
+        <v>136</v>
+      </c>
+      <c r="AD69">
+        <f>AC69-136</f>
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>10</v>
+      </c>
+      <c r="AF69">
+        <v>190</v>
+      </c>
+      <c r="AG69">
+        <f>AF69-190</f>
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70:H127" si="15">G70-7</f>
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>9.1</v>
+      </c>
+      <c r="J70">
+        <v>71</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70:K127" si="16">J70-70</f>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>76</v>
+      </c>
+      <c r="M70">
+        <v>137</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N120" si="17">M70-136</f>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70">
+        <v>191</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ref="Q70:Q116" si="18">P70-190</f>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>76</v>
+      </c>
+      <c r="W70">
+        <v>11</v>
+      </c>
+      <c r="X70">
+        <f t="shared" ref="X70:X85" si="19">W70-7</f>
+        <v>4</v>
+      </c>
+      <c r="Y70">
+        <v>9.1</v>
+      </c>
+      <c r="Z70">
+        <v>71</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" ref="AA70:AA85" si="20">Z70-70</f>
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>76</v>
+      </c>
+      <c r="AC70">
+        <v>137</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" ref="AD70:AD85" si="21">AC70-136</f>
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>10</v>
+      </c>
+      <c r="AF70">
+        <v>191</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" ref="AG70:AG85" si="22">AF70-190</f>
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J71">
+        <v>72</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>74</v>
+      </c>
+      <c r="M71">
+        <v>138</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <v>192</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>70</v>
+      </c>
+      <c r="W71">
+        <v>12</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z71">
+        <v>72</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AB71">
+        <v>74</v>
+      </c>
+      <c r="AC71">
+        <v>138</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AE71">
+        <v>10</v>
+      </c>
+      <c r="AF71">
+        <v>192</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AH71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>9.4</v>
+      </c>
+      <c r="J72">
+        <v>73</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>139</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>10</v>
+      </c>
+      <c r="P72">
+        <v>193</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>61</v>
+      </c>
+      <c r="W72">
+        <v>13</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>9.4</v>
+      </c>
+      <c r="Z72">
+        <v>73</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AB72">
+        <v>70</v>
+      </c>
+      <c r="AC72">
+        <v>139</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AE72">
+        <v>10</v>
+      </c>
+      <c r="AF72">
+        <v>193</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AH72">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>9.6</v>
+      </c>
+      <c r="J73">
+        <v>74</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>61</v>
+      </c>
+      <c r="M73">
+        <v>140</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73">
+        <v>194</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>48</v>
+      </c>
+      <c r="W73">
+        <v>14</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>9.6</v>
+      </c>
+      <c r="Z73">
+        <v>74</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AB73">
+        <v>61</v>
+      </c>
+      <c r="AC73">
+        <v>140</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AE73">
+        <v>10</v>
+      </c>
+      <c r="AF73">
+        <v>194</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AH73">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>9.6</v>
+      </c>
+      <c r="J74">
+        <v>75</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>43</v>
+      </c>
+      <c r="M74">
+        <v>141</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74">
+        <v>195</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>46</v>
+      </c>
+      <c r="W74">
+        <v>15</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>9.6</v>
+      </c>
+      <c r="Z74">
+        <v>75</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AB74">
+        <v>43</v>
+      </c>
+      <c r="AC74">
+        <v>141</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AE74">
+        <v>10</v>
+      </c>
+      <c r="AF74">
+        <v>195</v>
+      </c>
+      <c r="AG74">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AH74">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="I75">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J75">
+        <v>76</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="L75">
+        <v>40</v>
+      </c>
+      <c r="M75">
+        <v>142</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75">
+        <v>196</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="R75">
+        <v>37</v>
+      </c>
+      <c r="W75">
+        <v>16</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z75">
+        <v>76</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AB75">
+        <v>40</v>
+      </c>
+      <c r="AC75">
+        <v>142</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AE75">
+        <v>10</v>
+      </c>
+      <c r="AF75">
+        <v>196</v>
+      </c>
+      <c r="AG75">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="AH75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>17</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J76">
+        <v>77</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="L76">
+        <v>31</v>
+      </c>
+      <c r="M76">
+        <v>143</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>197</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <v>31</v>
+      </c>
+      <c r="W76">
+        <v>17</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z76">
+        <v>77</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="AB76">
+        <v>31</v>
+      </c>
+      <c r="AC76">
+        <v>143</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AE76">
+        <v>10</v>
+      </c>
+      <c r="AF76">
+        <v>197</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="AH76">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J77">
+        <v>78</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="L77">
+        <v>29</v>
+      </c>
+      <c r="M77">
+        <v>144</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77">
+        <v>198</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="R77">
+        <v>24</v>
+      </c>
+      <c r="W77">
+        <v>18</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Y77">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z77">
+        <v>78</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AB77">
+        <v>29</v>
+      </c>
+      <c r="AC77">
+        <v>144</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>10</v>
+      </c>
+      <c r="AF77">
+        <v>198</v>
+      </c>
+      <c r="AG77">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="AH77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="I78">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J78">
+        <v>79</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <v>26</v>
+      </c>
+      <c r="M78">
+        <v>145</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="O78">
+        <v>11</v>
+      </c>
+      <c r="P78">
+        <v>199</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="R78">
+        <v>23</v>
+      </c>
+      <c r="W78">
+        <v>19</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="Y78">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z78">
+        <v>79</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AB78">
+        <v>26</v>
+      </c>
+      <c r="AC78">
+        <v>145</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>11</v>
+      </c>
+      <c r="AF78">
+        <v>199</v>
+      </c>
+      <c r="AG78">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="AH78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="I79">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J79">
+        <v>80</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <v>23</v>
+      </c>
+      <c r="M79">
+        <v>146</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>11</v>
+      </c>
+      <c r="P79">
+        <v>200</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <v>20</v>
+      </c>
+      <c r="W79">
+        <v>20</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="Y79">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z79">
+        <v>80</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AB79">
+        <v>23</v>
+      </c>
+      <c r="AC79">
+        <v>146</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AE79">
+        <v>11</v>
+      </c>
+      <c r="AF79">
+        <v>200</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="AH79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="7:36" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>21</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="I80">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J80">
+        <v>81</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="L80">
+        <v>20</v>
+      </c>
+      <c r="M80">
+        <v>147</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="O80">
+        <v>12</v>
+      </c>
+      <c r="P80">
+        <v>201</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="R80">
+        <v>18</v>
+      </c>
+      <c r="W80">
+        <v>21</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="Y80">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z80">
+        <v>81</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="AB80">
+        <v>20</v>
+      </c>
+      <c r="AC80">
+        <v>147</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AE80">
+        <v>12</v>
+      </c>
+      <c r="AF80">
+        <v>201</v>
+      </c>
+      <c r="AG80">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="AH80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>22</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>9.9</v>
+      </c>
+      <c r="J81">
+        <v>82</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="L81">
+        <v>19</v>
+      </c>
+      <c r="M81">
+        <v>148</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>13</v>
+      </c>
+      <c r="P81">
+        <v>202</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="R81">
+        <v>17</v>
+      </c>
+      <c r="W81">
+        <v>22</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="Y81">
+        <v>9.9</v>
+      </c>
+      <c r="Z81">
+        <v>82</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="AB81">
+        <v>19</v>
+      </c>
+      <c r="AC81">
+        <v>148</v>
+      </c>
+      <c r="AD81">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AE81">
+        <v>13</v>
+      </c>
+      <c r="AF81">
+        <v>202</v>
+      </c>
+      <c r="AG81">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AH81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>23</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>83</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="L82">
+        <v>18</v>
+      </c>
+      <c r="M82">
+        <v>149</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="O82">
+        <v>15</v>
+      </c>
+      <c r="P82">
+        <v>203</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="R82">
+        <v>16</v>
+      </c>
+      <c r="W82">
+        <v>23</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="Y82">
+        <v>10</v>
+      </c>
+      <c r="Z82">
+        <v>83</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="AB82">
+        <v>18</v>
+      </c>
+      <c r="AC82">
+        <v>149</v>
+      </c>
+      <c r="AD82">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>15</v>
+      </c>
+      <c r="AF82">
+        <v>203</v>
+      </c>
+      <c r="AG82">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="AH82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>24</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>11</v>
+      </c>
+      <c r="J83">
+        <v>84</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="L83">
+        <v>16</v>
+      </c>
+      <c r="M83">
+        <v>150</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="O83">
+        <v>17</v>
+      </c>
+      <c r="P83">
+        <v>204</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="R83">
+        <v>15</v>
+      </c>
+      <c r="W83">
+        <v>24</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="Y83">
+        <v>11</v>
+      </c>
+      <c r="Z83">
+        <v>84</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="AB83">
+        <v>16</v>
+      </c>
+      <c r="AC83">
+        <v>150</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="AE83">
+        <v>17</v>
+      </c>
+      <c r="AF83">
+        <v>204</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="AH83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="I84">
+        <v>13</v>
+      </c>
+      <c r="J84">
+        <v>85</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="L84">
+        <v>15</v>
+      </c>
+      <c r="M84">
+        <v>151</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O84">
+        <v>19</v>
+      </c>
+      <c r="P84">
+        <v>205</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="R84">
+        <v>14</v>
+      </c>
+      <c r="W84">
+        <v>25</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="Y84">
+        <v>13</v>
+      </c>
+      <c r="Z84">
+        <v>85</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AB84">
+        <v>15</v>
+      </c>
+      <c r="AC84">
+        <v>151</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="AE84">
+        <v>19</v>
+      </c>
+      <c r="AF84">
+        <v>205</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="AH84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>26</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="I85">
+        <v>14</v>
+      </c>
+      <c r="J85">
+        <v>86</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="L85">
+        <v>14</v>
+      </c>
+      <c r="M85">
+        <v>152</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="O85">
+        <v>20</v>
+      </c>
+      <c r="P85">
+        <v>206</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="R85">
+        <v>13</v>
+      </c>
+      <c r="W85">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="Y85">
+        <v>14</v>
+      </c>
+      <c r="Z85">
+        <v>86</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="AB85">
+        <v>14</v>
+      </c>
+      <c r="AC85">
+        <v>152</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="AE85">
+        <v>20</v>
+      </c>
+      <c r="AF85">
+        <v>206</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="AH85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>27</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="I86">
+        <v>15</v>
+      </c>
+      <c r="J86">
+        <v>87</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="L86">
+        <v>13</v>
+      </c>
+      <c r="M86">
+        <v>153</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="O86">
+        <v>22</v>
+      </c>
+      <c r="P86">
+        <v>207</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="R86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>777777</v>
+      </c>
+      <c r="G87">
+        <v>28</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>88</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="L87">
+        <v>13</v>
+      </c>
+      <c r="M87">
+        <v>154</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="O87">
+        <v>24</v>
+      </c>
+      <c r="P87">
+        <v>208</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="R87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>29</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="I88">
+        <v>19</v>
+      </c>
+      <c r="J88">
+        <v>89</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="L88">
+        <v>12</v>
+      </c>
+      <c r="M88">
+        <v>155</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="O88">
+        <v>25</v>
+      </c>
+      <c r="P88">
+        <v>209</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="R88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="I89">
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>90</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="L89">
+        <v>12</v>
+      </c>
+      <c r="M89">
+        <v>156</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="O89">
+        <v>27</v>
+      </c>
+      <c r="P89">
+        <v>210</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="R89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>31</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="I90">
+        <v>21</v>
+      </c>
+      <c r="J90">
+        <v>91</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="L90">
+        <v>12</v>
+      </c>
+      <c r="M90">
+        <v>157</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="O90">
+        <v>29</v>
+      </c>
+      <c r="P90">
+        <v>211</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="R90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>32</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I91">
+        <v>22</v>
+      </c>
+      <c r="J91">
+        <v>92</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="L91">
+        <v>12</v>
+      </c>
+      <c r="M91">
+        <v>158</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="O91">
+        <v>31</v>
+      </c>
+      <c r="P91">
+        <v>212</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="R91">
+        <v>11</v>
+      </c>
+      <c r="X91" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>4</v>
+      </c>
+      <c r="AI91">
+        <v>5</v>
+      </c>
+      <c r="AJ91">
+        <v>6</v>
+      </c>
+      <c r="AK91">
+        <v>7</v>
+      </c>
+      <c r="AL91">
+        <v>8</v>
+      </c>
+      <c r="AM91">
+        <v>9</v>
+      </c>
+      <c r="AN91">
+        <v>10</v>
+      </c>
+      <c r="AO91">
+        <v>11</v>
+      </c>
+      <c r="AP91">
+        <v>12</v>
+      </c>
+      <c r="AQ91">
+        <v>13</v>
+      </c>
+      <c r="AR91">
+        <v>14</v>
+      </c>
+      <c r="AS91">
+        <v>15</v>
+      </c>
+      <c r="AT91">
+        <v>16</v>
+      </c>
+      <c r="AU91">
+        <v>17</v>
+      </c>
+      <c r="AV91">
+        <v>18</v>
+      </c>
+      <c r="AW91">
+        <v>19</v>
+      </c>
+      <c r="AX91">
+        <v>20</v>
+      </c>
+      <c r="AY91">
+        <v>21</v>
+      </c>
+      <c r="AZ91">
+        <v>22</v>
+      </c>
+      <c r="BA91">
+        <v>23</v>
+      </c>
+      <c r="BB91">
+        <v>24</v>
+      </c>
+      <c r="BC91">
+        <v>25</v>
+      </c>
+      <c r="BD91">
+        <v>26</v>
+      </c>
+      <c r="BE91">
+        <v>27</v>
+      </c>
+      <c r="BF91">
+        <v>28</v>
+      </c>
+      <c r="BG91">
+        <v>29</v>
+      </c>
+      <c r="BH91">
+        <v>30</v>
+      </c>
+      <c r="BI91">
+        <v>31</v>
+      </c>
+      <c r="BJ91">
+        <v>32</v>
+      </c>
+      <c r="BK91">
+        <v>33</v>
+      </c>
+      <c r="BL91">
+        <v>34</v>
+      </c>
+      <c r="BM91">
+        <v>35</v>
+      </c>
+      <c r="BN91">
+        <v>36</v>
+      </c>
+      <c r="BO91">
+        <v>37</v>
+      </c>
+      <c r="BP91">
+        <v>38</v>
+      </c>
+      <c r="BQ91">
+        <v>39</v>
+      </c>
+      <c r="BR91">
+        <v>40</v>
+      </c>
+      <c r="BS91">
+        <v>41</v>
+      </c>
+      <c r="BT91">
+        <v>42</v>
+      </c>
+      <c r="BU91">
+        <v>43</v>
+      </c>
+      <c r="BV91">
+        <v>44</v>
+      </c>
+      <c r="BW91">
+        <v>45</v>
+      </c>
+      <c r="BX91">
+        <v>46</v>
+      </c>
+      <c r="BY91">
+        <v>47</v>
+      </c>
+      <c r="BZ91">
+        <v>48</v>
+      </c>
+      <c r="CA91">
+        <v>49</v>
+      </c>
+      <c r="CB91">
+        <v>50</v>
+      </c>
+      <c r="CC91">
+        <v>51</v>
+      </c>
+      <c r="CD91">
+        <v>52</v>
+      </c>
+      <c r="CE91">
+        <v>53</v>
+      </c>
+      <c r="CF91">
+        <v>54</v>
+      </c>
+      <c r="CG91">
+        <v>55</v>
+      </c>
+      <c r="CH91">
+        <v>56</v>
+      </c>
+      <c r="CI91">
+        <v>57</v>
+      </c>
+      <c r="CJ91">
+        <v>58</v>
+      </c>
+      <c r="CK91">
         <v>59</v>
       </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J65">
-        <v>130</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
+      <c r="CL91">
         <v>60</v>
       </c>
-      <c r="L65">
-        <v>10</v>
+      <c r="CM91">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>33</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="I92">
+        <v>24</v>
+      </c>
+      <c r="J92">
+        <v>93</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="L92">
+        <v>11</v>
+      </c>
+      <c r="M92">
+        <v>159</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="O92">
+        <v>32</v>
+      </c>
+      <c r="P92">
+        <v>213</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="R92">
+        <v>11</v>
+      </c>
+      <c r="X92">
+        <f>B5-7</f>
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <f ca="1">(B5-7)*LN(Y92)</f>
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" ref="AA92:AA136" si="23">R5-136</f>
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>10</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" ref="AC92:AC143" si="24">LN(AB92)</f>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="93" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>34</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="I93">
+        <v>24</v>
+      </c>
+      <c r="J93">
+        <v>94</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="L93">
+        <v>11</v>
+      </c>
+      <c r="M93">
+        <v>160</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="O93">
+        <v>33</v>
+      </c>
+      <c r="P93">
+        <v>214</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="R93">
+        <v>11</v>
+      </c>
+      <c r="X93">
+        <f t="shared" ref="X93:X150" si="25">B6-7</f>
+        <v>4</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" ref="Y93:Y150" ca="1" si="26">(B6-7)*LN(Y93)</f>
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" ref="Z93:Z150" ca="1" si="27">LN(Y93)</f>
+        <v>2.2082744135228043</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>10</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="24"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AG93">
+        <f ca="1">(B5-7)*LN(Y92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>35</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I94">
+        <v>27</v>
+      </c>
+      <c r="J94">
+        <v>95</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="L94">
+        <v>11</v>
+      </c>
+      <c r="M94">
+        <v>161</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="O94">
+        <v>35</v>
+      </c>
+      <c r="P94">
+        <v>215</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="R94">
+        <v>11</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2192034840549946</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AB94">
+        <v>11</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" si="24"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AG94">
+        <f ca="1">(B6-7)*LN(Y93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>36</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="I95">
+        <v>29</v>
+      </c>
+      <c r="J95">
+        <v>96</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="L95">
+        <v>11</v>
+      </c>
+      <c r="M95">
+        <v>162</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="O95">
+        <v>36</v>
+      </c>
+      <c r="P95">
+        <v>216</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="R95">
+        <v>11</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2407096892759584</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AB95">
+        <v>11</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="24"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="96" spans="6:91" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>37</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="I96">
+        <v>30</v>
+      </c>
+      <c r="J96">
+        <v>97</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="L96">
+        <v>11</v>
+      </c>
+      <c r="M96">
+        <v>163</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="O96">
+        <v>38</v>
+      </c>
+      <c r="P96">
+        <v>217</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="R96">
+        <v>11</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2617630984737906</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AB96">
+        <v>12</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="24"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="97" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>38</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I97">
+        <v>31</v>
+      </c>
+      <c r="J97">
+        <v>98</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="L97">
+        <v>11</v>
+      </c>
+      <c r="M97">
+        <v>164</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="O97">
+        <v>38</v>
+      </c>
+      <c r="P97">
+        <v>218</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="R97">
+        <v>11</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2617630984737906</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AB97">
+        <v>13</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="24"/>
+        <v>2.5649493574615367</v>
+      </c>
+    </row>
+    <row r="98" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>39</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="I98">
+        <v>32</v>
+      </c>
+      <c r="J98">
+        <v>99</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="L98">
+        <v>11</v>
+      </c>
+      <c r="M98">
+        <v>165</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="O98">
+        <v>41</v>
+      </c>
+      <c r="P98">
+        <v>219</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="R98">
+        <v>11</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2721258855093369</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AB98">
+        <v>15</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" si="24"/>
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="99" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="I99">
+        <v>34</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L99">
+        <v>11</v>
+      </c>
+      <c r="M99">
+        <v>166</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="O99">
+        <v>42</v>
+      </c>
+      <c r="P99">
+        <v>220</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="R99">
+        <v>11</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2721258855093369</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="AB99">
+        <v>17</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="24"/>
+        <v>2.8332133440562162</v>
+      </c>
+    </row>
+    <row r="100" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="I100">
+        <v>36</v>
+      </c>
+      <c r="J100">
+        <v>101</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="L100">
+        <v>11</v>
+      </c>
+      <c r="M100">
+        <v>167</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="O100">
+        <v>43</v>
+      </c>
+      <c r="P100">
+        <v>221</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="R100">
+        <v>11</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2823823856765264</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="AB100">
+        <v>19</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="24"/>
+        <v>2.9444389791664403</v>
+      </c>
+    </row>
+    <row r="101" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>42</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="I101">
+        <v>38</v>
+      </c>
+      <c r="J101">
+        <v>102</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="L101">
+        <v>11</v>
+      </c>
+      <c r="M101">
+        <v>168</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="O101">
+        <v>45</v>
+      </c>
+      <c r="P101">
+        <v>222</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="R101">
+        <v>11</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2823823856765264</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="AB101">
+        <v>20</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="24"/>
+        <v>2.9957322735539909</v>
+      </c>
+    </row>
+    <row r="102" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>43</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="I102">
+        <v>39</v>
+      </c>
+      <c r="J102">
+        <v>103</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="L102">
+        <v>11</v>
+      </c>
+      <c r="M102">
+        <v>169</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="17"/>
+        <v>33</v>
+      </c>
+      <c r="O102">
+        <v>47</v>
+      </c>
+      <c r="P102">
+        <v>223</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="18"/>
+        <v>33</v>
+      </c>
+      <c r="R102">
+        <v>11</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2823823856765264</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="AB102">
+        <v>22</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="24"/>
+        <v>3.0910424533583161</v>
+      </c>
+    </row>
+    <row r="103" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>44</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="I103">
+        <v>40</v>
+      </c>
+      <c r="J103">
+        <v>104</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="L103">
+        <v>11</v>
+      </c>
+      <c r="M103">
+        <v>170</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="O103">
+        <v>50</v>
+      </c>
+      <c r="P103">
+        <v>224</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="18"/>
+        <v>34</v>
+      </c>
+      <c r="R103">
+        <v>11</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2823823856765264</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="AB103">
+        <v>24</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="24"/>
+        <v>3.1780538303479458</v>
+      </c>
+    </row>
+    <row r="104" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>45</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="I104">
+        <v>41</v>
+      </c>
+      <c r="J104">
+        <v>105</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="L104">
+        <v>11</v>
+      </c>
+      <c r="M104">
+        <v>171</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="O104">
+        <v>51</v>
+      </c>
+      <c r="P104">
+        <v>225</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+      <c r="R104">
+        <v>11</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.2925347571405443</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AB104">
+        <v>25</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" si="24"/>
+        <v>3.2188758248682006</v>
+      </c>
+    </row>
+    <row r="105" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>46</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="I105">
+        <v>42</v>
+      </c>
+      <c r="J105">
+        <v>106</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="L105">
+        <v>11</v>
+      </c>
+      <c r="M105">
+        <v>172</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="O105">
+        <v>52</v>
+      </c>
+      <c r="P105">
+        <v>226</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="R105">
+        <v>11</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="AB105">
+        <v>27</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" si="24"/>
+        <v>3.2958368660043291</v>
+      </c>
+    </row>
+    <row r="106" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>47</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I106">
+        <v>45</v>
+      </c>
+      <c r="J106">
+        <v>107</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="L106">
+        <v>11</v>
+      </c>
+      <c r="M106">
+        <v>173</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="O106">
+        <v>54</v>
+      </c>
+      <c r="P106">
+        <v>227</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="R106">
+        <v>11</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="AB106">
+        <v>29</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" si="24"/>
+        <v>3.3672958299864741</v>
+      </c>
+    </row>
+    <row r="107" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>77777</v>
+      </c>
+      <c r="G107">
+        <v>48</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="I107">
+        <v>46</v>
+      </c>
+      <c r="J107">
+        <v>108</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="L107">
+        <v>11</v>
+      </c>
+      <c r="M107">
+        <v>174</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="O107">
+        <v>55</v>
+      </c>
+      <c r="P107">
+        <v>228</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="18"/>
+        <v>38</v>
+      </c>
+      <c r="R107">
+        <v>11</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AB107">
+        <v>31</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="24"/>
+        <v>3.4339872044851463</v>
+      </c>
+    </row>
+    <row r="108" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>49</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="I108">
+        <v>48</v>
+      </c>
+      <c r="J108">
+        <v>109</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="L108">
+        <v>10</v>
+      </c>
+      <c r="M108">
+        <v>175</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="O108">
+        <v>57</v>
+      </c>
+      <c r="P108">
+        <v>229</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="R108">
+        <v>11</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="AB108">
+        <v>32</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="24"/>
+        <v>3.4657359027997265</v>
+      </c>
+    </row>
+    <row r="109" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>50</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="I109">
+        <v>49</v>
+      </c>
+      <c r="J109">
+        <v>110</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="L109">
+        <v>10</v>
+      </c>
+      <c r="M109">
+        <v>176</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="O109">
+        <v>59</v>
+      </c>
+      <c r="P109">
+        <v>230</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="R109">
+        <v>10</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="AB109">
+        <v>33</v>
+      </c>
+      <c r="AC109">
+        <f t="shared" si="24"/>
+        <v>3.4965075614664802</v>
+      </c>
+    </row>
+    <row r="110" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>51</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>111</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+      <c r="L110">
+        <v>10</v>
+      </c>
+      <c r="M110">
+        <v>177</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="O110">
+        <v>60</v>
+      </c>
+      <c r="P110">
+        <v>231</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="R110">
+        <v>10</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="AB110">
+        <v>35</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" si="24"/>
+        <v>3.5553480614894135</v>
+      </c>
+    </row>
+    <row r="111" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>52</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="I111">
+        <v>53</v>
+      </c>
+      <c r="J111">
+        <v>112</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="L111">
+        <v>10</v>
+      </c>
+      <c r="M111">
+        <v>178</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="17"/>
+        <v>42</v>
+      </c>
+      <c r="O111">
+        <v>61</v>
+      </c>
+      <c r="P111">
+        <v>232</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="R111">
+        <v>10</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.9444389791664403</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="AB111">
+        <v>36</v>
+      </c>
+      <c r="AC111">
+        <f t="shared" si="24"/>
+        <v>3.5835189384561099</v>
+      </c>
+    </row>
+    <row r="112" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>53</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="I112">
+        <v>54</v>
+      </c>
+      <c r="J112">
+        <v>113</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="16"/>
+        <v>43</v>
+      </c>
+      <c r="L112">
+        <v>10</v>
+      </c>
+      <c r="M112">
+        <v>179</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="O112">
+        <v>63</v>
+      </c>
+      <c r="P112">
+        <v>233</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="18"/>
+        <v>43</v>
+      </c>
+      <c r="R112">
+        <v>10</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" ca="1" si="27"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="AB112">
+        <v>38</v>
+      </c>
+      <c r="AC112">
+        <f t="shared" si="24"/>
+        <v>3.6375861597263857</v>
+      </c>
+    </row>
+    <row r="113" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>54</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="15"/>
+        <v>47</v>
+      </c>
+      <c r="I113">
+        <v>55</v>
+      </c>
+      <c r="J113">
+        <v>114</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="L113">
+        <v>10</v>
+      </c>
+      <c r="M113">
+        <v>180</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="O113">
+        <v>66</v>
+      </c>
+      <c r="P113">
+        <v>234</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="18"/>
+        <v>44</v>
+      </c>
+      <c r="R113">
+        <v>10</v>
+      </c>
+      <c r="X113">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="AB113">
+        <v>38</v>
+      </c>
+      <c r="AC113">
+        <f t="shared" si="24"/>
+        <v>3.6375861597263857</v>
+      </c>
+    </row>
+    <row r="114" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>55</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="I114">
+        <v>57</v>
+      </c>
+      <c r="J114">
+        <v>115</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="L114">
+        <v>10</v>
+      </c>
+      <c r="M114">
+        <v>181</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="O114">
+        <v>67</v>
+      </c>
+      <c r="P114">
+        <v>235</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="R114">
+        <v>10</v>
+      </c>
+      <c r="X114">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="AB114">
+        <v>41</v>
+      </c>
+      <c r="AC114">
+        <f t="shared" si="24"/>
+        <v>3.713572066704308</v>
+      </c>
+    </row>
+    <row r="115" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <v>56</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="I115">
+        <v>58</v>
+      </c>
+      <c r="J115">
+        <v>116</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="L115">
+        <v>10</v>
+      </c>
+      <c r="M115">
+        <v>182</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="O115">
+        <v>69</v>
+      </c>
+      <c r="P115">
+        <v>236</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="R115">
+        <v>10</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="AB115">
+        <v>42</v>
+      </c>
+      <c r="AC115">
+        <f t="shared" si="24"/>
+        <v>3.7376696182833684</v>
+      </c>
+    </row>
+    <row r="116" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <v>57</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="I116">
+        <v>60</v>
+      </c>
+      <c r="J116">
+        <v>117</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <v>183</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="O116">
+        <v>71</v>
+      </c>
+      <c r="P116">
+        <v>237</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="R116">
+        <v>10</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="AB116">
+        <v>43</v>
+      </c>
+      <c r="AC116">
+        <f t="shared" si="24"/>
+        <v>3.7612001156935624</v>
+      </c>
+    </row>
+    <row r="117" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <v>58</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="15"/>
+        <v>51</v>
+      </c>
+      <c r="I117">
+        <v>61</v>
+      </c>
+      <c r="J117">
+        <v>118</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="L117">
+        <v>10</v>
+      </c>
+      <c r="M117">
+        <v>184</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="O117">
+        <v>71</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="AB117">
+        <v>45</v>
+      </c>
+      <c r="AC117">
+        <f t="shared" si="24"/>
+        <v>3.8066624897703196</v>
+      </c>
+    </row>
+    <row r="118" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <v>59</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="I118">
+        <v>64</v>
+      </c>
+      <c r="J118">
+        <v>119</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="L118">
+        <v>10</v>
+      </c>
+      <c r="M118">
+        <v>185</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="O118">
+        <v>73</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.3672958299864741</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="23"/>
+        <v>26</v>
+      </c>
+      <c r="AB118">
+        <v>47</v>
+      </c>
+      <c r="AC118">
+        <f t="shared" si="24"/>
+        <v>3.8501476017100584</v>
+      </c>
+    </row>
+    <row r="119" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <v>60</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="15"/>
+        <v>53</v>
+      </c>
+      <c r="I119">
+        <v>64</v>
+      </c>
+      <c r="J119">
+        <v>120</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="L119">
+        <v>10</v>
+      </c>
+      <c r="M119">
+        <v>186</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="O119">
+        <v>75</v>
+      </c>
+      <c r="X119">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="23"/>
+        <v>27</v>
+      </c>
+      <c r="AB119">
+        <v>50</v>
+      </c>
+      <c r="AC119">
+        <f t="shared" si="24"/>
+        <v>3.912023005428146</v>
+      </c>
+    </row>
+    <row r="120" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G120">
+        <v>61</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="15"/>
+        <v>54</v>
+      </c>
+      <c r="I120">
+        <v>66</v>
+      </c>
+      <c r="J120">
+        <v>121</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="16"/>
+        <v>51</v>
+      </c>
+      <c r="L120">
+        <v>10</v>
+      </c>
+      <c r="M120">
+        <v>187</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="O120">
+        <v>77</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="AB120">
+        <v>51</v>
+      </c>
+      <c r="AC120">
+        <f t="shared" si="24"/>
+        <v>3.9318256327243257</v>
+      </c>
+    </row>
+    <row r="121" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <v>62</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="I121">
+        <v>67</v>
+      </c>
+      <c r="J121">
+        <v>122</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="L121">
+        <v>10</v>
+      </c>
+      <c r="X121">
+        <f t="shared" si="25"/>
+        <v>32</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.4657359027997265</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="23"/>
+        <v>29</v>
+      </c>
+      <c r="AB121">
+        <v>52</v>
+      </c>
+      <c r="AC121">
+        <f t="shared" si="24"/>
+        <v>3.9512437185814275</v>
+      </c>
+    </row>
+    <row r="122" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <v>63</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="I122">
+        <v>70</v>
+      </c>
+      <c r="J122">
+        <v>123</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="L122">
+        <v>10</v>
+      </c>
+      <c r="X122">
+        <f t="shared" si="25"/>
+        <v>33</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.5263605246161616</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="23"/>
+        <v>30</v>
+      </c>
+      <c r="AB122">
+        <v>54</v>
+      </c>
+      <c r="AC122">
+        <f t="shared" si="24"/>
+        <v>3.9889840465642745</v>
+      </c>
+    </row>
+    <row r="123" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <v>64</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="15"/>
+        <v>57</v>
+      </c>
+      <c r="I123">
+        <v>71</v>
+      </c>
+      <c r="J123">
+        <v>124</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="L123">
+        <v>10</v>
+      </c>
+      <c r="X123">
+        <f t="shared" si="25"/>
+        <v>34</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="AB123">
+        <v>55</v>
+      </c>
+      <c r="AC123">
+        <f t="shared" si="24"/>
+        <v>4.0073331852324712</v>
+      </c>
+    </row>
+    <row r="124" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G124">
+        <v>65</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="15"/>
+        <v>58</v>
+      </c>
+      <c r="I124">
+        <v>73</v>
+      </c>
+      <c r="J124">
+        <v>125</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="L124">
+        <v>10</v>
+      </c>
+      <c r="X124">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.6375861597263857</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="AB124">
+        <v>57</v>
+      </c>
+      <c r="AC124">
+        <f t="shared" si="24"/>
+        <v>4.0430512678345503</v>
+      </c>
+    </row>
+    <row r="125" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <v>66</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="I125">
+        <v>74</v>
+      </c>
+      <c r="J125">
+        <v>126</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="L125">
+        <v>10</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.6635616461296463</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="23"/>
+        <v>33</v>
+      </c>
+      <c r="AB125">
+        <v>59</v>
+      </c>
+      <c r="AC125">
+        <f t="shared" si="24"/>
+        <v>4.0775374439057197</v>
+      </c>
+    </row>
+    <row r="126" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G126">
+        <v>67</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="I126">
+        <v>76</v>
+      </c>
+      <c r="J126">
+        <v>127</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="L126">
+        <v>10</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+      <c r="AB126">
+        <v>60</v>
+      </c>
+      <c r="AC126">
+        <f t="shared" si="24"/>
+        <v>4.0943445622221004</v>
+      </c>
+    </row>
+    <row r="127" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G127">
+        <v>68</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="15"/>
+        <v>61</v>
+      </c>
+      <c r="I127">
+        <v>77</v>
+      </c>
+      <c r="J127">
+        <v>128</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="L127">
+        <v>10</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.713572066704308</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="AB127">
+        <v>61</v>
+      </c>
+      <c r="AC127">
+        <f t="shared" si="24"/>
+        <v>4.1108738641733114</v>
+      </c>
+    </row>
+    <row r="128" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <f>AVERAGE(H69:H127)</f>
+        <v>31.949152542372882</v>
+      </c>
+      <c r="I128">
+        <f>AVERAGE(I69:I127)</f>
+        <v>35.430508474576271</v>
+      </c>
+      <c r="J128">
+        <f t="shared" ref="J128:R128" si="28">AVERAGE(J69:J127)</f>
+        <v>99</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="28"/>
+        <v>29</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="28"/>
+        <v>18.728813559322035</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="28"/>
+        <v>161.5</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="28"/>
+        <v>25.5</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="28"/>
+        <v>37.057692307692307</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="28"/>
+        <v>213.5</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="28"/>
+        <v>23.5</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="28"/>
+        <v>19.729166666666668</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="25"/>
+        <v>39</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="AA128">
+        <f t="shared" si="23"/>
+        <v>36</v>
+      </c>
+      <c r="AB128">
+        <v>63</v>
+      </c>
+      <c r="AC128">
+        <f t="shared" si="24"/>
+        <v>4.1431347263915326</v>
+      </c>
+    </row>
+    <row r="129" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X129">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.8066624897703196</v>
+      </c>
+      <c r="AA129">
+        <f t="shared" si="23"/>
+        <v>37</v>
+      </c>
+      <c r="AB129">
+        <v>66</v>
+      </c>
+      <c r="AC129">
+        <f t="shared" si="24"/>
+        <v>4.1896547420264252</v>
+      </c>
+    </row>
+    <row r="130" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X130">
+        <f t="shared" si="25"/>
+        <v>41</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.8286413964890951</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="AB130">
+        <v>67</v>
+      </c>
+      <c r="AC130">
+        <f t="shared" si="24"/>
+        <v>4.2046926193909657</v>
+      </c>
+    </row>
+    <row r="131" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X131">
+        <f t="shared" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.8712010109078911</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="AB131">
+        <v>69</v>
+      </c>
+      <c r="AC131">
+        <f t="shared" si="24"/>
+        <v>4.2341065045972597</v>
+      </c>
+    </row>
+    <row r="132" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X132">
+        <f t="shared" si="25"/>
+        <v>43</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.8918202981106265</v>
+      </c>
+      <c r="AA132">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="AB132">
+        <v>71</v>
+      </c>
+      <c r="AC132">
+        <f t="shared" si="24"/>
+        <v>4.2626798770413155</v>
+      </c>
+    </row>
+    <row r="133" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X133">
+        <f t="shared" si="25"/>
+        <v>44</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="23"/>
+        <v>41</v>
+      </c>
+      <c r="AB133">
+        <v>71</v>
+      </c>
+      <c r="AC133">
+        <f t="shared" si="24"/>
+        <v>4.2626798770413155</v>
+      </c>
+    </row>
+    <row r="134" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X134">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.970291913552122</v>
+      </c>
+      <c r="AA134">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB134">
+        <v>73</v>
+      </c>
+      <c r="AC134">
+        <f t="shared" si="24"/>
+        <v>4.290459441148391</v>
+      </c>
+    </row>
+    <row r="135" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X135">
+        <f t="shared" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <f t="shared" ca="1" si="27"/>
+        <v>3.9889840465642745</v>
+      </c>
+      <c r="AA135">
+        <f t="shared" si="23"/>
+        <v>43</v>
+      </c>
+      <c r="AB135">
+        <v>75</v>
+      </c>
+      <c r="AC135">
+        <f t="shared" si="24"/>
+        <v>4.3174881135363101</v>
+      </c>
+    </row>
+    <row r="136" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X136">
+        <f t="shared" si="25"/>
+        <v>47</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.0073331852324712</v>
+      </c>
+      <c r="AA136">
+        <f t="shared" si="23"/>
+        <v>44</v>
+      </c>
+      <c r="AB136">
+        <v>77</v>
+      </c>
+      <c r="AC136">
+        <f t="shared" si="24"/>
+        <v>4.3438054218536841</v>
+      </c>
+    </row>
+    <row r="137" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X137">
+        <f t="shared" si="25"/>
+        <v>48</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.0430512678345503</v>
+      </c>
+      <c r="AA137">
+        <f t="shared" ref="AA93:AA143" si="29">R50-136</f>
+        <v>45</v>
+      </c>
+      <c r="AB137">
+        <v>67</v>
+      </c>
+      <c r="AC137">
+        <f t="shared" si="24"/>
+        <v>4.2046926193909657</v>
+      </c>
+    </row>
+    <row r="138" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X138">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.0604430105464191</v>
+      </c>
+      <c r="AA138">
+        <f t="shared" si="29"/>
+        <v>46</v>
+      </c>
+      <c r="AB138">
+        <v>69</v>
+      </c>
+      <c r="AC138">
+        <f t="shared" si="24"/>
+        <v>4.2341065045972597</v>
+      </c>
+    </row>
+    <row r="139" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X139">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="AA139">
+        <f t="shared" si="29"/>
+        <v>47</v>
+      </c>
+      <c r="AB139">
+        <v>71</v>
+      </c>
+      <c r="AC139">
+        <f t="shared" si="24"/>
+        <v>4.2626798770413155</v>
+      </c>
+    </row>
+    <row r="140" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X140">
+        <f t="shared" si="25"/>
+        <v>51</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.1108738641733114</v>
+      </c>
+      <c r="AA140">
+        <f t="shared" si="29"/>
+        <v>48</v>
+      </c>
+      <c r="AB140">
+        <v>71</v>
+      </c>
+      <c r="AC140">
+        <f t="shared" si="24"/>
+        <v>4.2626798770413155</v>
+      </c>
+    </row>
+    <row r="141" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X141">
+        <f t="shared" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="AA141">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="AB141">
+        <v>73</v>
+      </c>
+      <c r="AC141">
+        <f t="shared" si="24"/>
+        <v>4.290459441148391</v>
+      </c>
+    </row>
+    <row r="142" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X142">
+        <f t="shared" si="25"/>
+        <v>53</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="AA142">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="AB142">
+        <v>75</v>
+      </c>
+      <c r="AC142">
+        <f t="shared" si="24"/>
+        <v>4.3174881135363101</v>
+      </c>
+    </row>
+    <row r="143" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X143">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.1896547420264252</v>
+      </c>
+      <c r="AA143">
+        <f t="shared" si="29"/>
+        <v>51</v>
+      </c>
+      <c r="AB143">
+        <v>77</v>
+      </c>
+      <c r="AC143">
+        <f t="shared" si="24"/>
+        <v>4.3438054218536841</v>
+      </c>
+    </row>
+    <row r="144" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X144">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.2046926193909657</v>
+      </c>
+    </row>
+    <row r="145" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X145">
+        <f t="shared" si="25"/>
+        <v>56</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.2484952420493594</v>
+      </c>
+    </row>
+    <row r="146" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X146">
+        <f t="shared" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.2626798770413155</v>
+      </c>
+    </row>
+    <row r="147" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X147">
+        <f t="shared" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.290459441148391</v>
+      </c>
+    </row>
+    <row r="148" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X148">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.3040650932041702</v>
+      </c>
+    </row>
+    <row r="149" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X149">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.3307333402863311</v>
+      </c>
+    </row>
+    <row r="150" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X150">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" ca="1" si="27"/>
+        <v>4.3438054218536841</v>
+      </c>
+    </row>
+    <row r="152" spans="24:29" x14ac:dyDescent="0.3">
+      <c r="X152">
+        <f>AVERAGE(X92:X150)</f>
+        <v>31.949152542372882</v>
+      </c>
+      <c r="Y152" t="e">
+        <f t="shared" ref="Y152:AC152" ca="1" si="30">AVERAGE(Y92:Y150)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" ca="1" si="30"/>
+        <v>3.3373831590154306</v>
+      </c>
+      <c r="AA152">
+        <f t="shared" si="30"/>
+        <v>25.5</v>
+      </c>
+      <c r="AB152">
+        <f t="shared" si="30"/>
+        <v>45.384615384615387</v>
+      </c>
+      <c r="AC152">
+        <f t="shared" si="30"/>
+        <v>3.6547059254979319</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="AF67:AH67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="W67:Y67"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:L3"/>
